--- a/sosialhjelp-common-kotlin-utils/src/test/resources/eksempelfiler/sample_kontoutskrift.xlsx
+++ b/sosialhjelp-common-kotlin-utils/src/test/resources/eksempelfiler/sample_kontoutskrift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Utvikling\code\sosialhjelp-common\sosialhjelp-common-kotlin-utils\src\test\resources\eksempelfiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Utvikling\Kode\sosialhjelp-common\sosialhjelp-common-kotlin-utils\src\test\resources\eksempelfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5762AEB-AE4F-4477-B95B-D9F961C129F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D41119E-B2E4-433F-8975-EBFEA4D798A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kontoutskrift" sheetId="1" r:id="rId1"/>
@@ -441,19 +441,19 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="A1:E25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.69921875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="16.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="16.625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44986</v>
       </c>
@@ -485,7 +485,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44986</v>
       </c>
@@ -500,7 +500,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44986</v>
       </c>
@@ -515,7 +515,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44988</v>
       </c>
@@ -530,7 +530,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44991</v>
       </c>
@@ -545,7 +545,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44992</v>
       </c>
@@ -560,7 +560,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44986</v>
       </c>
@@ -575,7 +575,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44986</v>
       </c>
@@ -590,7 +590,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44986</v>
       </c>
@@ -605,7 +605,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44988</v>
       </c>
@@ -620,7 +620,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44991</v>
       </c>
@@ -635,7 +635,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44992</v>
       </c>
@@ -650,7 +650,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44986</v>
       </c>
@@ -665,7 +665,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44986</v>
       </c>
@@ -680,7 +680,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44986</v>
       </c>
@@ -695,7 +695,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44988</v>
       </c>
@@ -710,7 +710,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44991</v>
       </c>
@@ -725,7 +725,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44992</v>
       </c>
@@ -740,7 +740,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44986</v>
       </c>
@@ -755,7 +755,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44986</v>
       </c>
@@ -770,7 +770,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44986</v>
       </c>
@@ -785,7 +785,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44988</v>
       </c>
@@ -800,7 +800,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44991</v>
       </c>
@@ -815,7 +815,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44992</v>
       </c>
@@ -830,43 +830,43 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
